--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-549772.2018171943</v>
+        <v>-552284.6101985596</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>281.8953352974212</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>89.60487759803563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.12222763303349</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>82.40888889397317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>116.7942439067259</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>156.327958615471</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>91.88021536100133</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>340.028989024462</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>72.5725112216532</v>
+        <v>148.7052471490503</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>186.9625385917865</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>218.943284645508</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>114.4600416653585</v>
+        <v>279.3271297120556</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2873251119323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>13.94435783112377</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>183.055950037019</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.8317276803708</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>34.0049084329451</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>31.66396365647122</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="U25" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08971311158712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.21841339139988</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>141.3831318263024</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.9811888265267</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2244.121949002409</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C2" t="n">
-        <v>1875.159432061997</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D2" t="n">
-        <v>1516.893733455247</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066531</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="3">
@@ -4389,70 +4389,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1810.067901317704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1588.30128588723</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1299.198419012874</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1215.957117099769</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>926.5399470628088</v>
+        <v>1554.636076138439</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.429619686766</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>867.0450906249525</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686766</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1151.43361471993</v>
+        <v>1206.468019445915</v>
       </c>
       <c r="W7" t="n">
-        <v>862.0164446829692</v>
+        <v>917.050849408954</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>917.050849408954</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>696.2582702654239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416653</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476242</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>691.4327488694912</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>305.644496271247</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6989955220435</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>287.6669494074441</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.4849621798493</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W10" t="n">
-        <v>1109.122977908106</v>
+        <v>1333.548859544783</v>
       </c>
       <c r="X10" t="n">
-        <v>881.133427010089</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.133427010089</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,13 +5118,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794805</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537118</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,16 +5598,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T19" t="n">
-        <v>2091.550948547922</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547922</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>267.5122958789771</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>267.5122958789771</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>125.8004647211751</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,52 +5984,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6175,22 +6175,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,7 +6315,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>335.7491137930464</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,58 +7072,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0350347748406</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>280.1262230804334</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>169.7287544298548</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>169.7287544298651</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>109.4223302771048</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.6711151870886</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>42.65370535201816</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>46.57372264691747</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>252.5180899036459</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.60187266209431</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="U25" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.52575990662524</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.30572490086897</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.00954930701784</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1015317.429464547</v>
+        <v>1015317.429464546</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058921</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26329,7 +26329,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.6448992519</v>
@@ -26338,22 +26338,22 @@
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363166</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24616.41034080857</v>
+        <v>24616.41034080842</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,31 +26433,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="N4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989924</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989928</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232235.452853896</v>
+        <v>-1232526.060018742</v>
       </c>
       <c r="C6" t="n">
-        <v>67940.62365634169</v>
+        <v>67940.62365634181</v>
       </c>
       <c r="D6" t="n">
-        <v>67940.62365634184</v>
+        <v>67940.62365634175</v>
       </c>
       <c r="E6" t="n">
-        <v>-175989.3229488163</v>
+        <v>-176024.0608742521</v>
       </c>
       <c r="F6" t="n">
-        <v>149423.1388585392</v>
+        <v>149388.4009331035</v>
       </c>
       <c r="G6" t="n">
-        <v>149423.138858539</v>
+        <v>149388.4009331031</v>
       </c>
       <c r="H6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331035</v>
       </c>
       <c r="I6" t="n">
-        <v>149423.1388585388</v>
+        <v>149388.4009331031</v>
       </c>
       <c r="J6" t="n">
-        <v>-68108.06353873824</v>
+        <v>-68142.80146417426</v>
       </c>
       <c r="K6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331033</v>
       </c>
       <c r="L6" t="n">
-        <v>149423.1388585391</v>
+        <v>149388.4009331034</v>
       </c>
       <c r="M6" t="n">
-        <v>64368.1109230273</v>
+        <v>64333.37299759142</v>
       </c>
       <c r="N6" t="n">
         <v>124478.905878446</v>
@@ -26561,7 +26561,7 @@
         <v>143906.6238720776</v>
       </c>
       <c r="P6" t="n">
-        <v>143906.6238720776</v>
+        <v>143906.6238720775</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>162.6467976984084</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>69.38169677356612</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>273.3926764100062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>66.84705671724947</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.5651321021748</v>
+        <v>103.4323961747777</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.771303071694</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75.66447974181244</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>172.0629566712325</v>
+        <v>7.195868624535422</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.080786659963274e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32318,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
